--- a/wwwroot/files/Attendance.xlsx
+++ b/wwwroot/files/Attendance.xlsx
@@ -19,7 +19,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+  <si>
+    <t>Employee Name</t>
+  </si>
   <si>
     <t>Check In</t>
   </si>
@@ -30,7 +33,16 @@
     <t>Date</t>
   </si>
   <si>
-    <t>SSN</t>
+    <t>Mohamed Atef</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>mo</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -360,12 +372,12 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.21875" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="16.109375" customWidth="1"/>
     <col min="4" max="4" width="20.44140625" customWidth="1"/>
@@ -373,55 +385,55 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>29801260103118</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D2" s="1">
-        <v>44780</v>
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>298565656231</v>
-      </c>
-      <c r="B3" s="3">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>45909</v>
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>

--- a/wwwroot/files/Attendance.xlsx
+++ b/wwwroot/files/Attendance.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7A95B0-E0F1-4849-B5EB-D7D34793EA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Employee Name</t>
   </si>
@@ -33,29 +34,41 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Mohamed Atef</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>mo</t>
-  </si>
-  <si>
-    <t>a</t>
+    <t>2980161dqwdqdqwd2685255</t>
+  </si>
+  <si>
+    <t>2980161afewf2685255</t>
+  </si>
+  <si>
+    <t>fwf</t>
+  </si>
+  <si>
+    <t>wefw</t>
+  </si>
+  <si>
+    <t>fwef</t>
+  </si>
+  <si>
+    <t>ewfwef</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,7 +91,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -89,6 +102,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,22 +382,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,71 +411,103 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44569</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
+    <row r="3" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44600</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+    <row r="4" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44628</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+    <row r="5" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44659</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+    <row r="6" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44689</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+    <row r="7" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44720</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -469,7 +515,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -477,7 +523,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -485,7 +531,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -493,7 +539,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -501,7 +547,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -509,7 +555,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -517,7 +563,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -525,7 +571,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -533,7 +579,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -541,7 +587,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -549,7 +595,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -557,7 +603,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -565,7 +611,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -575,5 +621,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/wwwroot/files/Attendance.xlsx
+++ b/wwwroot/files/Attendance.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7A95B0-E0F1-4849-B5EB-D7D34793EA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DC4724-D7C6-4AA4-AD23-24E77AB49D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Employee Name</t>
   </si>
@@ -32,24 +32,6 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>2980161dqwdqdqwd2685255</t>
-  </si>
-  <si>
-    <t>2980161afewf2685255</t>
-  </si>
-  <si>
-    <t>fwf</t>
-  </si>
-  <si>
-    <t>wefw</t>
-  </si>
-  <si>
-    <t>fwef</t>
-  </si>
-  <si>
-    <t>ewfwef</t>
   </si>
 </sst>
 </file>
@@ -389,15 +371,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,9 +393,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>25647891254896</v>
       </c>
       <c r="B2" s="3">
         <v>0.41666666666666669</v>
@@ -427,9 +409,9 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
+    <row r="3" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A3" s="4">
+        <v>25647891254896</v>
       </c>
       <c r="B3" s="3">
         <v>0.375</v>
@@ -443,9 +425,9 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
+    <row r="4" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A4" s="4">
+        <v>25412365478912</v>
       </c>
       <c r="B4" s="3">
         <v>0.5</v>
@@ -459,55 +441,31 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.4375</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D5" s="1">
-        <v>44659</v>
-      </c>
+    <row r="5" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="D6" s="1">
-        <v>44689</v>
-      </c>
+    <row r="6" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D7" s="1">
-        <v>44720</v>
-      </c>
+    <row r="7" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -515,7 +473,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -523,7 +481,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -531,7 +489,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -539,7 +497,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -547,7 +505,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -555,7 +513,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -563,7 +521,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -571,7 +529,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -579,7 +537,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -587,7 +545,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -595,7 +553,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -603,7 +561,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -611,7 +569,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>

--- a/wwwroot/files/Attendance.xlsx
+++ b/wwwroot/files/Attendance.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DC4724-D7C6-4AA4-AD23-24E77AB49D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Employee Name</t>
-  </si>
-  <si>
     <t>Check In</t>
   </si>
   <si>
@@ -33,24 +29,21 @@
   <si>
     <t>Date</t>
   </si>
+  <si>
+    <t>SSN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -73,7 +66,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -84,7 +77,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,16 +356,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="33.21875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="16.109375" customWidth="1"/>
     <col min="4" max="4" width="20.44140625" customWidth="1"/>
@@ -381,87 +373,71 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>25647891254896</v>
+        <v>29801260103118</v>
       </c>
       <c r="B2" s="3">
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="C2" s="3">
-        <v>0.66666666666666663</v>
+        <v>0.85763888888888884</v>
       </c>
       <c r="D2" s="1">
-        <v>44569</v>
+        <v>44778</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A3" s="4">
-        <v>25647891254896</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D3" s="1">
-        <v>44600</v>
-      </c>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A4" s="4">
-        <v>25412365478912</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D4" s="1">
-        <v>44628</v>
-      </c>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="1"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.45">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="1"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
@@ -561,24 +537,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/wwwroot/files/Attendance.xlsx
+++ b/wwwroot/files/Attendance.xlsx
@@ -360,7 +360,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -387,33 +387,49 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>29801260103118</v>
+        <v>298012314582</v>
       </c>
       <c r="B2" s="3">
         <v>0.5</v>
       </c>
       <c r="C2" s="3">
-        <v>0.85763888888888884</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D2" s="1">
-        <v>44778</v>
+        <v>44781</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="A3" s="2">
+        <v>298012314582</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44780</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="2">
+        <v>298012314582</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44779</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>

--- a/wwwroot/files/Attendance.xlsx
+++ b/wwwroot/files/Attendance.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629513D0-EFEC-4843-B79D-E6BC75272C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +22,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
+    <t>Employee Name</t>
+  </si>
+  <si>
     <t>Check In</t>
   </si>
   <si>
@@ -29,21 +33,30 @@
   <si>
     <t>Date</t>
   </si>
-  <si>
-    <t>SSN</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,7 +79,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -77,6 +90,8 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,108 +371,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.21875" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>298012314582</v>
+    </row>
+    <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>29610280104312</v>
       </c>
       <c r="B2" s="3">
-        <v>0.5</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C2" s="3">
-        <v>0.58333333333333337</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="D2" s="1">
-        <v>44781</v>
+        <v>44842</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>298012314582</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.6875</v>
-      </c>
-      <c r="D3" s="1">
-        <v>44780</v>
-      </c>
+    <row r="3" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="1"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>298012314582</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.85763888888888884</v>
-      </c>
-      <c r="D4" s="1">
-        <v>44779</v>
-      </c>
+    <row r="4" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+    <row r="5" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+    <row r="6" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+    <row r="7" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -465,7 +464,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -473,7 +472,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -481,7 +480,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -489,7 +488,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -497,7 +496,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -505,7 +504,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -513,7 +512,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -521,7 +520,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -529,7 +528,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -537,7 +536,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -545,7 +544,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -553,7 +552,24 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>